--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_3_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1090546.412402211</v>
+        <v>-958062.2064055536</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055467.315111707</v>
+        <v>6549343.963692136</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729601</v>
+        <v>340528.8729729604</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11909958.55935596</v>
+        <v>11954639.55433238</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -674,7 +674,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>227.0630285097812</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>16.8201079258493</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>4.235841136991852</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>14.81515106108805</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>16.8201079258493</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>16.8201079258493</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>16.8201079258493</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.81515106108805</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.8201079258493</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>16.8201079258493</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.18989043985453</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>231.3474543231453</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>231.3474543231453</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>181.0124211839769</v>
+        <v>81.55291533286611</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>231.3474543231453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1038,10 +1038,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>122.012204491306</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>42.06359429114119</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.3474543231453</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>390.1527797502169</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>155.1058883816376</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>326.4772324480793</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>16.95232370435908</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.3217367015055</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>124.0998600375571</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5981234669177</v>
+        <v>370.495197479924</v>
       </c>
       <c r="C11" t="n">
-        <v>368.5025003789357</v>
+        <v>370.399574391942</v>
       </c>
       <c r="D11" t="n">
-        <v>362.8984462069432</v>
+        <v>364.7955202199495</v>
       </c>
       <c r="E11" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403517</v>
       </c>
       <c r="F11" t="n">
-        <v>379.2992635249224</v>
+        <v>193.3051633772574</v>
       </c>
       <c r="G11" t="n">
-        <v>367.1201568651692</v>
+        <v>369.0172308781756</v>
       </c>
       <c r="H11" t="n">
-        <v>270.2785679976323</v>
+        <v>272.1756420106386</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>49.864474668177</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>184.3606488246892</v>
       </c>
       <c r="U11" t="n">
-        <v>136.3689840691054</v>
+        <v>218.8661164351644</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8183347159572</v>
+        <v>310.7154087289636</v>
       </c>
       <c r="W11" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682625</v>
       </c>
       <c r="X11" t="n">
-        <v>359.1161194518101</v>
+        <v>361.0131934648164</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334702</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.3018649291771</v>
+        <v>150.1989389421834</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8615943129738</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>122.2759278423985</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>100.7369011355666</v>
       </c>
       <c r="F13" t="n">
-        <v>62.50362077197221</v>
+        <v>127.3610442425941</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0570427627851</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>112.4876102546773</v>
       </c>
       <c r="I13" t="n">
-        <v>77.66174103579023</v>
+        <v>79.55881504879653</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.79622075343378</v>
       </c>
       <c r="S13" t="n">
-        <v>147.007006037962</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>199.632407232138</v>
+        <v>201.5294812451444</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4493215784102</v>
+        <v>244.3463955914165</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6260432089464</v>
+        <v>235.5231172219527</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7581234452875</v>
+        <v>240.6551974582938</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4395791179866</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C14" t="n">
-        <v>368.5025003789357</v>
+        <v>84.20390616535025</v>
       </c>
       <c r="D14" t="n">
-        <v>362.8984462069432</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2992635249224</v>
+        <v>381.1963375379287</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1201568651692</v>
+        <v>369.0172308781755</v>
       </c>
       <c r="H14" t="n">
-        <v>270.2785679976323</v>
+        <v>272.1756420106386</v>
       </c>
       <c r="I14" t="n">
-        <v>47.96740065517067</v>
+        <v>49.86447466817697</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.40158341393484</v>
+        <v>98.30449406591956</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>184.3606488246892</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>218.8661164351644</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8183347159572</v>
+        <v>310.7154087289635</v>
       </c>
       <c r="W14" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682625</v>
       </c>
       <c r="X14" t="n">
-        <v>359.1161194518101</v>
+        <v>361.0131934648164</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334702</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.301864929177</v>
+        <v>50.57448071279583</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8615943129738</v>
+        <v>133.7586683259801</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7808625794368</v>
+        <v>123.6779365924431</v>
       </c>
       <c r="F16" t="n">
-        <v>125.4639702295877</v>
+        <v>127.3610442425941</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0570427627851</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>110.590536241671</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.66174103579021</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.79622075343375</v>
       </c>
       <c r="S16" t="n">
-        <v>147.0070060379619</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>201.5294812451443</v>
       </c>
       <c r="U16" t="n">
-        <v>75.02967268718325</v>
+        <v>244.3463955914165</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>235.5231172219527</v>
       </c>
       <c r="W16" t="n">
-        <v>238.7581234452875</v>
+        <v>240.6551974582938</v>
       </c>
       <c r="X16" t="n">
-        <v>198.4395791179865</v>
+        <v>200.3366531309929</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.967497224196</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.4355598753964</v>
+        <v>351.415486264818</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3399367874144</v>
+        <v>351.319863176836</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048434</v>
       </c>
       <c r="E17" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252456</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1366999334011</v>
+        <v>362.1166263228227</v>
       </c>
       <c r="G17" t="n">
-        <v>339.9575932736479</v>
+        <v>349.9375196630695</v>
       </c>
       <c r="H17" t="n">
-        <v>243.116004406111</v>
+        <v>253.0959307955326</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80483706364939</v>
+        <v>30.78476345307097</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139196</v>
+        <v>79.22478285081354</v>
       </c>
       <c r="T17" t="n">
-        <v>155.3010112201616</v>
+        <v>165.2809376095832</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8064788306368</v>
+        <v>199.7864052200584</v>
       </c>
       <c r="V17" t="n">
-        <v>281.6557711244359</v>
+        <v>291.6356975138575</v>
       </c>
       <c r="W17" t="n">
-        <v>315.2392898637349</v>
+        <v>325.2192162531565</v>
       </c>
       <c r="X17" t="n">
-        <v>331.9535558602888</v>
+        <v>341.9334822497104</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.2438983289426</v>
+        <v>342.2238247183642</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1393013376574</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108741</v>
       </c>
       <c r="D19" t="n">
-        <v>93.21629023787089</v>
+        <v>103.1962166272925</v>
       </c>
       <c r="E19" t="n">
-        <v>94.61829898791554</v>
+        <v>104.5982253773371</v>
       </c>
       <c r="F19" t="n">
-        <v>98.30140663806647</v>
+        <v>1.47113168964464</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712638</v>
+        <v>110.8744055606854</v>
       </c>
       <c r="H19" t="n">
-        <v>83.42797265014973</v>
+        <v>93.4078990395713</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426892</v>
+        <v>60.47910383369051</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.73658314890616</v>
+        <v>29.71650953832775</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358622</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4698436406167</v>
+        <v>182.4497700300383</v>
       </c>
       <c r="U19" t="n">
-        <v>215.2867579868889</v>
+        <v>225.2666843763105</v>
       </c>
       <c r="V19" t="n">
-        <v>206.4634796174251</v>
+        <v>216.4434060068467</v>
       </c>
       <c r="W19" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431878</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158868</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220963</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648178</v>
       </c>
       <c r="C20" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768358</v>
       </c>
       <c r="D20" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048433</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252455</v>
       </c>
       <c r="F20" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228226</v>
       </c>
       <c r="G20" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630694</v>
       </c>
       <c r="H20" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955325</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345307086</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.24485646139203</v>
+        <v>79.22478285081343</v>
       </c>
       <c r="T20" t="n">
-        <v>155.3010112201617</v>
+        <v>165.280937609583</v>
       </c>
       <c r="U20" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200583</v>
       </c>
       <c r="V20" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138574</v>
       </c>
       <c r="W20" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531564</v>
       </c>
       <c r="X20" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497103</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183641</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270772</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108739</v>
       </c>
       <c r="D22" t="n">
-        <v>93.21629023787096</v>
+        <v>103.1962166272924</v>
       </c>
       <c r="E22" t="n">
-        <v>94.61829898791561</v>
+        <v>104.598225377337</v>
       </c>
       <c r="F22" t="n">
-        <v>98.30140663806654</v>
+        <v>108.2813330274879</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>2.769345331630456</v>
       </c>
       <c r="H22" t="n">
-        <v>83.4279726501498</v>
+        <v>93.40789903957119</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426899</v>
+        <v>60.4791038336904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.73658314890623</v>
+        <v>29.71650953832764</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300382</v>
       </c>
       <c r="U22" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763104</v>
       </c>
       <c r="V22" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068465</v>
       </c>
       <c r="W22" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431876</v>
       </c>
       <c r="X22" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158867</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220962</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648178</v>
       </c>
       <c r="C23" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768358</v>
       </c>
       <c r="D23" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048433</v>
       </c>
       <c r="E23" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252455</v>
       </c>
       <c r="F23" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228226</v>
       </c>
       <c r="G23" t="n">
-        <v>339.9575932736473</v>
+        <v>349.9375196630694</v>
       </c>
       <c r="H23" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955325</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345307086</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139203</v>
+        <v>79.22478285081343</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201617</v>
+        <v>165.280937609583</v>
       </c>
       <c r="U23" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200583</v>
       </c>
       <c r="V23" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138574</v>
       </c>
       <c r="W23" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531564</v>
       </c>
       <c r="X23" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497106</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183641</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270772</v>
       </c>
       <c r="C25" t="n">
-        <v>104.6990307214525</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787096</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791561</v>
+        <v>104.598225377337</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806654</v>
+        <v>108.2813330274879</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606853</v>
       </c>
       <c r="H25" t="n">
-        <v>83.4279726501498</v>
+        <v>93.40789903957119</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426899</v>
+        <v>60.4791038336904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890623</v>
+        <v>9.662254211576311</v>
       </c>
       <c r="S25" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358621</v>
       </c>
       <c r="T25" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300382</v>
       </c>
       <c r="U25" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763104</v>
       </c>
       <c r="V25" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068465</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431876</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158867</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220962</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>107.7276828060597</v>
       </c>
       <c r="X28" t="n">
-        <v>158.4256821268988</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>124.4596155679888</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>33.12209635668157</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
@@ -3038,16 +3038,16 @@
         <v>345.5134053358241</v>
       </c>
       <c r="F32" t="n">
-        <v>352.1366999334012</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>339.957593273648</v>
+        <v>350.2573233257145</v>
       </c>
       <c r="H32" t="n">
-        <v>243.1160044061111</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364944</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>155.3010112201616</v>
       </c>
       <c r="U32" t="n">
-        <v>189.8064788306369</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>281.655771124436</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>315.239289863735</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.2438983289427</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3266,7 +3266,7 @@
         <v>341.4355598753965</v>
       </c>
       <c r="C35" t="n">
-        <v>341.3399367874145</v>
+        <v>341.3399367874146</v>
       </c>
       <c r="D35" t="n">
         <v>335.735882615422</v>
@@ -3281,10 +3281,10 @@
         <v>339.9575932736481</v>
       </c>
       <c r="H35" t="n">
-        <v>243.1160044061111</v>
+        <v>243.1160044061112</v>
       </c>
       <c r="I35" t="n">
-        <v>20.8048370636495</v>
+        <v>20.80483706364954</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24485646139208</v>
+        <v>69.24485646139212</v>
       </c>
       <c r="T35" t="n">
         <v>155.3010112201617</v>
       </c>
       <c r="U35" t="n">
-        <v>189.8064788306369</v>
+        <v>189.806478830637</v>
       </c>
       <c r="V35" t="n">
         <v>281.6557711244361</v>
@@ -3332,7 +3332,7 @@
         <v>331.9535558602889</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.2438983289427</v>
+        <v>332.2438983289428</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>104.6990307214526</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21629023787101</v>
+        <v>93.21629023787105</v>
       </c>
       <c r="E37" t="n">
-        <v>94.61829898791565</v>
+        <v>94.61829898791569</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30140663806658</v>
+        <v>98.30140663806662</v>
       </c>
       <c r="G37" t="n">
-        <v>100.8944791712639</v>
+        <v>100.894479171264</v>
       </c>
       <c r="H37" t="n">
-        <v>83.42797265014984</v>
+        <v>83.42797265014988</v>
       </c>
       <c r="I37" t="n">
-        <v>50.49917744426904</v>
+        <v>50.49917744426908</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.73658314890628</v>
+        <v>19.73658314890632</v>
       </c>
       <c r="S37" t="n">
         <v>119.8444424464408</v>
       </c>
       <c r="T37" t="n">
-        <v>172.4698436406168</v>
+        <v>172.4698436406169</v>
       </c>
       <c r="U37" t="n">
-        <v>215.286757986889</v>
+        <v>215.2867579868891</v>
       </c>
       <c r="V37" t="n">
         <v>206.4634796174252</v>
@@ -3521,7 +3521,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I38" t="n">
-        <v>20.80483706364944</v>
+        <v>20.80483706364946</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.24485646139202</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T38" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U38" t="n">
         <v>189.8064788306369</v>
@@ -3664,22 +3664,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D40" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787096</v>
       </c>
       <c r="E40" t="n">
-        <v>94.61829898791559</v>
+        <v>94.61829898791561</v>
       </c>
       <c r="F40" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806654</v>
       </c>
       <c r="G40" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H40" t="n">
-        <v>83.42797265014978</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I40" t="n">
-        <v>50.49917744426898</v>
+        <v>50.49917744426899</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.73658314890622</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S40" t="n">
         <v>119.8444424464407</v>
@@ -3797,7 +3797,7 @@
         <v>189.8064788306369</v>
       </c>
       <c r="V41" t="n">
-        <v>281.655771124436</v>
+        <v>281.6557711244367</v>
       </c>
       <c r="W41" t="n">
         <v>315.239289863735</v>
@@ -3913,7 +3913,7 @@
         <v>100.8944791712639</v>
       </c>
       <c r="H43" t="n">
-        <v>83.4279726501499</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I43" t="n">
         <v>50.49917744426898</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.83102066230052</v>
+        <v>713.6474961525632</v>
       </c>
       <c r="C2" t="n">
-        <v>33.74683401597471</v>
+        <v>303.5229054658333</v>
       </c>
       <c r="D2" t="n">
-        <v>33.32330814943931</v>
+        <v>303.0993795992979</v>
       </c>
       <c r="E2" t="n">
-        <v>23.02349670674008</v>
+        <v>292.7995681565987</v>
       </c>
       <c r="F2" t="n">
-        <v>6.033488700831693</v>
+        <v>275.8095601506903</v>
       </c>
       <c r="G2" t="n">
-        <v>1.345608634067944</v>
+        <v>271.1216800839265</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>17.32471116362478</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>17.32471116362478</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>17.32471116362478</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M2" t="n">
-        <v>17.32471116362478</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>17.32471116362478</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>17.32471116362478</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
-        <v>33.97661801021559</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.62852485680639</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>50.29042369748881</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>46.01179628638593</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>46.01179628638593</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>46.01179628638593</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X2" t="n">
-        <v>46.01179628638593</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.01179628638593</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.345608634067944</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>1.345608634067944</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>1.345608634067944</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>1.345608634067944</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>1.345608634067944</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>1.345608634067944</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>1.345608634067944</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>17.99751548065875</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>34.64942232724955</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>51.30132917384036</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>67.2804317033972</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
-        <v>67.2804317033972</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="O3" t="n">
-        <v>67.2804317033972</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>67.2804317033972</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.2804317033972</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>52.3156326517931</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>35.32562464588472</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>18.33561663997633</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1.345608634067944</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1.345608634067944</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1.345608634067944</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.345608634067944</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.2804317033972</v>
+        <v>358.622931898602</v>
       </c>
       <c r="C4" t="n">
-        <v>67.2804317033972</v>
+        <v>358.622931898602</v>
       </c>
       <c r="D4" t="n">
-        <v>67.2804317033972</v>
+        <v>358.622931898602</v>
       </c>
       <c r="E4" t="n">
-        <v>67.2804317033972</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F4" t="n">
-        <v>52.3156326517931</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>35.32562464588472</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>18.33561663997633</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1.345608634067944</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>1.345608634067944</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>17.99751548065875</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>33.97661801021559</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>33.97661801021559</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>50.62852485680639</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>67.2804317033972</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>67.2804317033972</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>67.2804317033972</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>67.2804317033972</v>
+        <v>1383.570304595155</v>
       </c>
       <c r="U4" t="n">
-        <v>67.2804317033972</v>
+        <v>1100.77215714128</v>
       </c>
       <c r="V4" t="n">
-        <v>67.2804317033972</v>
+        <v>1100.77215714128</v>
       </c>
       <c r="W4" t="n">
-        <v>67.2804317033972</v>
+        <v>821.702492650154</v>
       </c>
       <c r="X4" t="n">
-        <v>67.2804317033972</v>
+        <v>583.3586305098373</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.2804317033972</v>
+        <v>358.622931898602</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>502.6839148936249</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C5" t="n">
-        <v>496.5997282472991</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D5" t="n">
-        <v>496.1762023807637</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E5" t="n">
-        <v>485.8763909380644</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>252.192093641958</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>18.50779634585163</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>18.50779634585163</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>18.50779634585163</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>247.5417761257655</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>247.5417761257655</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>247.5417761257655</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>476.5757559056793</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>655.7991918231025</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>655.7991918231025</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>655.7991918231025</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>884.8331716030165</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>925.3898172925813</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>925.3898172925813</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>925.3898172925813</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>925.3898172925813</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>925.3898172925813</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>742.5489878138167</v>
+        <v>1298.552485403132</v>
       </c>
       <c r="X5" t="n">
-        <v>742.5489878138167</v>
+        <v>1298.552485403132</v>
       </c>
       <c r="Y5" t="n">
-        <v>508.8646905177103</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.50779634585163</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>18.50779634585163</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>18.50779634585163</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>18.50779634585163</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>18.50779634585163</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>18.50779634585163</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>18.50779634585163</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>18.50779634585163</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>211.3206539084849</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>211.3206539084849</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L6" t="n">
-        <v>211.3206539084849</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M6" t="n">
-        <v>440.3546336883987</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N6" t="n">
-        <v>669.3886134683125</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>669.3886134683125</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>669.3886134683125</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>895.8302979299514</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>925.3898172925813</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>925.3898172925813</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>766.0479534795895</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>568.6971426178083</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>354.985615610842</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>141.7524473471708</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
-        <v>18.50779634585163</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.50779634585163</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.2086239786785</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>168.115251540395</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>168.115251540395</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>168.115251540395</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>168.115251540395</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>168.115251540395</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>18.50779634585163</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>18.50779634585163</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>32.59034575106215</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>32.59034575106215</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>172.7598481503288</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>401.7938279302427</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>630.8278077101565</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>859.8617874900705</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>859.8617874900705</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>925.3898172925813</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>840.117098967981</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>840.117098967981</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>840.117098967981</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>840.117098967981</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>797.6286198860201</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>797.6286198860201</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>563.9443225899138</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.2086239786785</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>446.8013433217525</v>
+        <v>1040.316040198786</v>
       </c>
       <c r="C8" t="n">
-        <v>440.7171566754267</v>
+        <v>630.1914495120558</v>
       </c>
       <c r="D8" t="n">
-        <v>440.2936308088914</v>
+        <v>225.7275196051163</v>
       </c>
       <c r="E8" t="n">
-        <v>429.9938193661921</v>
+        <v>215.4277081624171</v>
       </c>
       <c r="F8" t="n">
-        <v>35.9001024467811</v>
+        <v>198.4377001565087</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>426.3909626105813</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L8" t="n">
-        <v>426.3909626105813</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M8" t="n">
-        <v>426.3909626105813</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N8" t="n">
-        <v>812.642214563296</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O8" t="n">
-        <v>812.642214563296</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>1230.83613673008</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W8" t="n">
-        <v>847.075835865249</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X8" t="n">
-        <v>452.982118945838</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="Y8" t="n">
-        <v>452.982118945838</v>
+        <v>1046.496815822871</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>528.6807065341791</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>394.6856352831248</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>277.7884775025172</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>157.2956614948452</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>48.33578167734976</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>31.21222238001735</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>610.2763318953653</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>610.2763318953653</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>996.52758384808</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1181.207134954254</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O9" t="n">
-        <v>1181.207134954254</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>1181.207134954254</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>882.216907433437</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>668.9837391697657</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>668.9837391697657</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.9837391697657</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.6516407139747</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C10" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D10" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E10" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F10" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G10" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1288.946632556178</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1174.146101828431</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5997460790038</v>
+        <v>1174.146101828431</v>
       </c>
       <c r="V10" t="n">
-        <v>492.7140010185257</v>
+        <v>900.2603567679535</v>
       </c>
       <c r="W10" t="n">
-        <v>492.7140010185257</v>
+        <v>621.1906922768278</v>
       </c>
       <c r="X10" t="n">
-        <v>492.7140010185257</v>
+        <v>382.8468301365112</v>
       </c>
       <c r="Y10" t="n">
-        <v>492.7140010185257</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2224.561019833579</v>
+        <v>2099.723468411871</v>
       </c>
       <c r="C11" t="n">
-        <v>1852.336271976068</v>
+        <v>1725.582484177586</v>
       </c>
       <c r="D11" t="n">
-        <v>1485.772184898348</v>
+        <v>1357.102160723091</v>
       </c>
       <c r="E11" t="n">
-        <v>1109.331812244464</v>
+        <v>978.7455516924333</v>
       </c>
       <c r="F11" t="n">
-        <v>726.2012430273703</v>
+        <v>783.4878109073253</v>
       </c>
       <c r="G11" t="n">
-        <v>355.3728017494216</v>
+        <v>410.7431332526024</v>
       </c>
       <c r="H11" t="n">
-        <v>82.36414720635867</v>
+        <v>135.8182423327655</v>
       </c>
       <c r="I11" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J11" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="K11" t="n">
-        <v>341.6111460542099</v>
+        <v>536.4647365400253</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.202545866448</v>
+        <v>1249.056136352263</v>
       </c>
       <c r="M11" t="n">
-        <v>1830.521136858202</v>
+        <v>2025.374727344017</v>
       </c>
       <c r="N11" t="n">
-        <v>2583.70215349682</v>
+        <v>2778.555743982635</v>
       </c>
       <c r="O11" t="n">
-        <v>3227.333009913925</v>
+        <v>3422.18660039974</v>
       </c>
       <c r="P11" t="n">
-        <v>3756.489707833076</v>
+        <v>3951.343298318892</v>
       </c>
       <c r="Q11" t="n">
-        <v>4077.650714628368</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="R11" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="S11" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="T11" t="n">
-        <v>4118.207360317933</v>
+        <v>4086.281427513488</v>
       </c>
       <c r="U11" t="n">
-        <v>3980.460911763281</v>
+        <v>3865.204542225443</v>
       </c>
       <c r="V11" t="n">
-        <v>3668.523199928982</v>
+        <v>3551.350594014369</v>
       </c>
       <c r="W11" t="n">
-        <v>3322.662741893369</v>
+        <v>3203.573899601983</v>
       </c>
       <c r="X11" t="n">
-        <v>2959.91918689154</v>
+        <v>2838.91410822338</v>
       </c>
       <c r="Y11" t="n">
-        <v>2596.88235666885</v>
+        <v>2473.961041623915</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C12" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D12" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E12" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F12" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I12" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J12" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="K12" t="n">
-        <v>730.9832610342905</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="L12" t="n">
-        <v>730.9832610342905</v>
+        <v>746.5382580215719</v>
       </c>
       <c r="M12" t="n">
-        <v>730.9832610342905</v>
+        <v>1589.515338716139</v>
       </c>
       <c r="N12" t="n">
-        <v>730.9832610342905</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="O12" t="n">
-        <v>1187.743466521715</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="P12" t="n">
-        <v>1749.449359010245</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="Q12" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R12" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S12" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T12" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U12" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V12" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X12" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.4893986038546</v>
+        <v>764.6161621627124</v>
       </c>
       <c r="C13" t="n">
-        <v>353.2958689947906</v>
+        <v>764.6161621627124</v>
       </c>
       <c r="D13" t="n">
-        <v>353.2958689947906</v>
+        <v>641.1051239380674</v>
       </c>
       <c r="E13" t="n">
-        <v>353.2958689947906</v>
+        <v>539.3506783465862</v>
       </c>
       <c r="F13" t="n">
-        <v>290.1608985180509</v>
+        <v>410.7031589096224</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8103502728135</v>
+        <v>279.4363742876109</v>
       </c>
       <c r="H13" t="n">
-        <v>160.8103502728135</v>
+        <v>165.8125255455125</v>
       </c>
       <c r="I13" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5923325684868</v>
+        <v>134.8001681915356</v>
       </c>
       <c r="K13" t="n">
-        <v>325.2902962476423</v>
+        <v>324.620028597815</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3330324846205</v>
+        <v>619.7846615619169</v>
       </c>
       <c r="M13" t="n">
-        <v>948.7427248820313</v>
+        <v>944.3162506864514</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.727143233199</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O13" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708912</v>
       </c>
       <c r="Q13" t="n">
-        <v>1908.928131482549</v>
+        <v>1896.989244195464</v>
       </c>
       <c r="R13" t="n">
-        <v>1908.928131482549</v>
+        <v>1847.700132323309</v>
       </c>
       <c r="S13" t="n">
-        <v>1760.436206191679</v>
+        <v>1847.700132323309</v>
       </c>
       <c r="T13" t="n">
-        <v>1558.7873099976</v>
+        <v>1644.134999752456</v>
       </c>
       <c r="U13" t="n">
-        <v>1313.889005372943</v>
+        <v>1397.320458751025</v>
       </c>
       <c r="V13" t="n">
-        <v>1077.903103141684</v>
+        <v>1159.418320142992</v>
       </c>
       <c r="W13" t="n">
-        <v>836.7332814797776</v>
+        <v>916.3322621043118</v>
       </c>
       <c r="X13" t="n">
-        <v>636.2892621686799</v>
+        <v>916.3322621043118</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.2892621686799</v>
+        <v>916.3322621043118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2273.012939687287</v>
+        <v>2000.425999658416</v>
       </c>
       <c r="C14" t="n">
-        <v>1900.788191829776</v>
+        <v>1915.371548986345</v>
       </c>
       <c r="D14" t="n">
-        <v>1534.224104752056</v>
+        <v>1546.891225531851</v>
       </c>
       <c r="E14" t="n">
-        <v>1157.783732098171</v>
+        <v>1168.534616501193</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6531628810781</v>
+        <v>783.4878109073252</v>
       </c>
       <c r="G14" t="n">
-        <v>403.8247216031293</v>
+        <v>410.7431332526024</v>
       </c>
       <c r="H14" t="n">
-        <v>130.8160670600664</v>
+        <v>135.8182423327655</v>
       </c>
       <c r="I14" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J14" t="n">
-        <v>336.5496186741129</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K14" t="n">
-        <v>874.7091197831525</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L14" t="n">
-        <v>1587.300519595391</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M14" t="n">
-        <v>2363.619110587144</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.800127225762</v>
+        <v>3119.886066121688</v>
       </c>
       <c r="O14" t="n">
-        <v>3760.430983642867</v>
+        <v>3763.516922538793</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="Q14" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="R14" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="S14" t="n">
-        <v>4028.912831616989</v>
+        <v>4173.20683636073</v>
       </c>
       <c r="T14" t="n">
-        <v>4028.912831616989</v>
+        <v>3986.983958760034</v>
       </c>
       <c r="U14" t="n">
-        <v>4028.912831616989</v>
+        <v>3765.907073471989</v>
       </c>
       <c r="V14" t="n">
-        <v>3716.975119782689</v>
+        <v>3452.053125260914</v>
       </c>
       <c r="W14" t="n">
-        <v>3371.114661747076</v>
+        <v>3104.276430848528</v>
       </c>
       <c r="X14" t="n">
-        <v>3008.371106745248</v>
+        <v>2739.616639469926</v>
       </c>
       <c r="Y14" t="n">
-        <v>2645.334276522557</v>
+        <v>2374.663572870461</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C15" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D15" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E15" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I15" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J15" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="K15" t="n">
-        <v>526.6552946024269</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="L15" t="n">
-        <v>1187.743466521715</v>
+        <v>746.5382580215719</v>
       </c>
       <c r="M15" t="n">
-        <v>1187.743466521715</v>
+        <v>1589.515338716139</v>
       </c>
       <c r="N15" t="n">
-        <v>1187.743466521715</v>
+        <v>1589.515338716139</v>
       </c>
       <c r="O15" t="n">
-        <v>1187.743466521715</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="P15" t="n">
-        <v>1749.449359010245</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="Q15" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R15" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S15" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T15" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U15" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V15" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W15" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X15" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.3990977029616</v>
+        <v>474.1345802043213</v>
       </c>
       <c r="C16" t="n">
-        <v>773.2055680938972</v>
+        <v>339.0248142184829</v>
       </c>
       <c r="D16" t="n">
-        <v>651.6107662460263</v>
+        <v>339.0248142184829</v>
       </c>
       <c r="E16" t="n">
-        <v>528.5997939435648</v>
+        <v>214.0976055392474</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8685108833752</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="G16" t="n">
-        <v>272.5179626381376</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="H16" t="n">
-        <v>160.8103502728134</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="I16" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5923325684868</v>
+        <v>134.8001681915356</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2902962476425</v>
+        <v>324.620028597815</v>
       </c>
       <c r="L16" t="n">
-        <v>622.3330324846206</v>
+        <v>619.7846615619169</v>
       </c>
       <c r="M16" t="n">
-        <v>948.7427248820314</v>
+        <v>944.3162506864516</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.727143233199</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O16" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708912</v>
       </c>
       <c r="Q16" t="n">
-        <v>1908.92813148255</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R16" t="n">
-        <v>1908.92813148255</v>
+        <v>1847.70013232331</v>
       </c>
       <c r="S16" t="n">
-        <v>1760.436206191679</v>
+        <v>1847.70013232331</v>
       </c>
       <c r="T16" t="n">
-        <v>1760.436206191679</v>
+        <v>1644.134999752457</v>
       </c>
       <c r="U16" t="n">
-        <v>1684.648658022807</v>
+        <v>1397.320458751026</v>
       </c>
       <c r="V16" t="n">
-        <v>1684.648658022807</v>
+        <v>1159.418320142993</v>
       </c>
       <c r="W16" t="n">
-        <v>1443.478836360901</v>
+        <v>916.3322621043123</v>
       </c>
       <c r="X16" t="n">
-        <v>1243.034817049803</v>
+        <v>713.9720064164406</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.198961267787</v>
+        <v>525.2199142576504</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242186</v>
+        <v>2154.60548422493</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305404</v>
+        <v>1799.736935561459</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148412</v>
+        <v>1450.529047677779</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415257</v>
+        <v>1091.444874217935</v>
       </c>
       <c r="F17" t="n">
-        <v>692.342364118892</v>
+        <v>725.6705041948817</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616722</v>
+        <v>372.1982621109742</v>
       </c>
       <c r="H17" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619513</v>
       </c>
       <c r="I17" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J17" t="n">
-        <v>336.5496186741129</v>
+        <v>319.4662422262778</v>
       </c>
       <c r="K17" t="n">
-        <v>874.7091197831525</v>
+        <v>857.6257433353173</v>
       </c>
       <c r="L17" t="n">
-        <v>1587.300519595391</v>
+        <v>1570.217143147555</v>
       </c>
       <c r="M17" t="n">
-        <v>2363.619110587144</v>
+        <v>2346.535734139309</v>
       </c>
       <c r="N17" t="n">
-        <v>3116.800127225762</v>
+        <v>3099.716750777927</v>
       </c>
       <c r="O17" t="n">
-        <v>3760.430983642867</v>
+        <v>3743.347607195032</v>
       </c>
       <c r="P17" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="Q17" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="R17" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931544</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901662</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568246</v>
+        <v>3823.724380184431</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654674</v>
+        <v>3529.142867544171</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702599</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.43871045869</v>
+        <v>2855.25125289481</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.838813156728</v>
+        <v>2509.57062186616</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C18" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D18" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F18" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I18" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J18" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="K18" t="n">
-        <v>538.1704034716574</v>
+        <v>541.2563423675824</v>
       </c>
       <c r="L18" t="n">
-        <v>1187.743466521715</v>
+        <v>1202.344514286871</v>
       </c>
       <c r="M18" t="n">
-        <v>1187.743466521715</v>
+        <v>1427.98219140689</v>
       </c>
       <c r="N18" t="n">
-        <v>1187.743466521715</v>
+        <v>1427.98219140689</v>
       </c>
       <c r="O18" t="n">
-        <v>1187.743466521715</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="P18" t="n">
-        <v>1749.449359010245</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="Q18" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R18" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S18" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T18" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U18" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V18" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W18" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X18" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578615</v>
+        <v>680.1025499801586</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695258</v>
+        <v>564.2652195651342</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423834</v>
+        <v>460.0266169113031</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606505</v>
+        <v>354.3718438028818</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211894</v>
+        <v>352.8858521971799</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966805</v>
+        <v>240.8915031459825</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3734173520847</v>
+        <v>146.5400899746983</v>
       </c>
       <c r="I19" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944905</v>
       </c>
       <c r="K19" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037248</v>
       </c>
       <c r="L19" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707817</v>
       </c>
       <c r="M19" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098271</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279518</v>
       </c>
       <c r="O19" t="n">
-        <v>1724.779017250228</v>
+        <v>1668.584193392988</v>
       </c>
       <c r="P19" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429597</v>
       </c>
       <c r="Q19" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019105</v>
       </c>
       <c r="R19" t="n">
-        <v>2104.119692552746</v>
+        <v>2018.083880717763</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.064700182604</v>
+        <v>1886.948154620933</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909254</v>
+        <v>1702.655457620894</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.391365205325</v>
+        <v>1475.113352190278</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894795</v>
+        <v>1256.483649153059</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153617</v>
+        <v>1032.670026685192</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632477</v>
+        <v>849.5822065681348</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.70349790196</v>
+        <v>680.1025499801586</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.60548422493</v>
       </c>
       <c r="C20" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.73693556146</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.52904767778</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415257</v>
+        <v>1091.444874217936</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188925</v>
+        <v>725.6705041948826</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616723</v>
+        <v>372.1982621109737</v>
       </c>
       <c r="H20" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619512</v>
       </c>
       <c r="I20" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J20" t="n">
-        <v>124.6126517404624</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="K20" t="n">
-        <v>662.7721528495019</v>
+        <v>536.4647365400253</v>
       </c>
       <c r="L20" t="n">
-        <v>1375.36355266174</v>
+        <v>1249.056136352263</v>
       </c>
       <c r="M20" t="n">
-        <v>2151.682143653494</v>
+        <v>2025.374727344017</v>
       </c>
       <c r="N20" t="n">
-        <v>2904.863160292112</v>
+        <v>2778.555743982635</v>
       </c>
       <c r="O20" t="n">
-        <v>3548.494016709217</v>
+        <v>3422.18660039974</v>
       </c>
       <c r="P20" t="n">
-        <v>4077.650714628368</v>
+        <v>3951.343298318892</v>
       </c>
       <c r="Q20" t="n">
-        <v>4077.650714628368</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="R20" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="S20" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931544</v>
       </c>
       <c r="T20" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901662</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568246</v>
+        <v>3823.724380184432</v>
       </c>
       <c r="V20" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544171</v>
       </c>
       <c r="W20" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702599</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458691</v>
+        <v>2855.251252894811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.57062186616</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C21" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D21" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F21" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H21" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I21" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J21" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="K21" t="n">
-        <v>730.9832610342905</v>
+        <v>541.2563423675824</v>
       </c>
       <c r="L21" t="n">
-        <v>1187.743466521715</v>
+        <v>1202.344514286871</v>
       </c>
       <c r="M21" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="N21" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="P21" t="n">
-        <v>1749.449359010245</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q21" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S21" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T21" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U21" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V21" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W21" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578622</v>
+        <v>678.7946117062056</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695263</v>
+        <v>562.9572812911815</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423839</v>
+        <v>458.7186786373513</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606509</v>
+        <v>353.0639055289299</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211897</v>
+        <v>243.6888216627804</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966807</v>
+        <v>240.8915031459823</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3734173520849</v>
+        <v>146.5400899746982</v>
       </c>
       <c r="I22" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240928</v>
+        <v>153.6890822944906</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588546</v>
+        <v>362.3978568037251</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707821</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279518</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250228</v>
+        <v>1668.584193392989</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429598</v>
       </c>
       <c r="Q22" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019105</v>
       </c>
       <c r="R22" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717764</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182603</v>
+        <v>2018.083880717764</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909253</v>
+        <v>1833.791183717726</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.391365205324</v>
+        <v>1606.249078287109</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894794</v>
+        <v>1387.61937524989</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153616</v>
+        <v>1163.805752782024</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632466</v>
+        <v>980.7179326649667</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019589</v>
+        <v>811.2382760769907</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.60548422493</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.166594305404</v>
+        <v>1799.73693556146</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.039440148412</v>
+        <v>1450.52904767778</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.036000415257</v>
+        <v>1091.444874217936</v>
       </c>
       <c r="F23" t="n">
-        <v>692.3423641188919</v>
+        <v>725.6705041948824</v>
       </c>
       <c r="G23" t="n">
-        <v>348.9508557616724</v>
+        <v>372.1982621109739</v>
       </c>
       <c r="H23" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619512</v>
       </c>
       <c r="I23" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J23" t="n">
-        <v>336.5496186741129</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="K23" t="n">
-        <v>703.3287985390668</v>
+        <v>623.6095872113232</v>
       </c>
       <c r="L23" t="n">
-        <v>1415.920198351305</v>
+        <v>1336.200987023561</v>
       </c>
       <c r="M23" t="n">
-        <v>2192.238789343059</v>
+        <v>2112.519578015315</v>
       </c>
       <c r="N23" t="n">
-        <v>2945.419805981677</v>
+        <v>2865.700594653933</v>
       </c>
       <c r="O23" t="n">
-        <v>3589.050662398782</v>
+        <v>3509.331451071038</v>
       </c>
       <c r="P23" t="n">
-        <v>4118.207360317933</v>
+        <v>4038.48814899019</v>
       </c>
       <c r="Q23" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="R23" t="n">
-        <v>4118.207360317933</v>
+        <v>4272.504305114184</v>
       </c>
       <c r="S23" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931544</v>
       </c>
       <c r="T23" t="n">
-        <v>3891.393352558788</v>
+        <v>4025.528829901662</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.669636568246</v>
+        <v>3823.724380184432</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654674</v>
+        <v>3529.142867544172</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702599</v>
       </c>
       <c r="X23" t="n">
-        <v>2761.438710458691</v>
+        <v>2855.251252894811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.57062186616</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C24" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E24" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F24" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G24" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H24" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I24" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J24" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="K24" t="n">
-        <v>730.9832610342905</v>
+        <v>541.2563423675824</v>
       </c>
       <c r="L24" t="n">
-        <v>730.9832610342905</v>
+        <v>1202.344514286871</v>
       </c>
       <c r="M24" t="n">
-        <v>730.9832610342905</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="N24" t="n">
-        <v>730.9832610342905</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="O24" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="P24" t="n">
-        <v>1749.449359010245</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q24" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R24" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S24" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T24" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V24" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W24" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y24" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578621</v>
+        <v>567.9157091717499</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695262</v>
+        <v>567.9157091717499</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423836</v>
+        <v>567.9157091717499</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606508</v>
+        <v>462.2609360633286</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211896</v>
+        <v>352.8858521971792</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966807</v>
+        <v>240.8915031459819</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>146.540089974698</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635867</v>
+        <v>85.45008610228368</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944906</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037251</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707821</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279518</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250228</v>
+        <v>1668.584193392989</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429598</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019105</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552745</v>
+        <v>2038.340704280139</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182603</v>
+        <v>1907.204978183308</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909253</v>
+        <v>1722.91228118327</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205324</v>
+        <v>1495.370175752653</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894794</v>
+        <v>1276.740472715435</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153616</v>
+        <v>1052.926850247568</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632465</v>
+        <v>869.839030130511</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019588</v>
+        <v>700.359373542535</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764623</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6266,10 +6266,10 @@
         <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>1198.623017005979</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>230.6971779303946</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C28" t="n">
-        <v>230.6971779303946</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D28" t="n">
-        <v>230.6971779303946</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E28" t="n">
-        <v>230.6971779303946</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F28" t="n">
-        <v>230.6971779303946</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
         <v>609.3875320253558</v>
@@ -6406,28 +6406,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T28" t="n">
-        <v>1489.927527310052</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U28" t="n">
-        <v>1236.926290690861</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="V28" t="n">
-        <v>992.8374564650675</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="W28" t="n">
-        <v>743.5647028086266</v>
+        <v>1535.387706790507</v>
       </c>
       <c r="X28" t="n">
-        <v>583.5387612663046</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y28" t="n">
-        <v>388.5999734897541</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="29">
@@ -6491,22 +6491,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6546,7 +6546,7 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
         <v>1198.623017005979</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.7003606771698</v>
+        <v>338.7710254524902</v>
       </c>
       <c r="C31" t="n">
-        <v>126.7003606771698</v>
+        <v>338.7710254524902</v>
       </c>
       <c r="D31" t="n">
-        <v>126.7003606771698</v>
+        <v>338.7710254524902</v>
       </c>
       <c r="E31" t="n">
-        <v>126.7003606771698</v>
+        <v>338.7710254524902</v>
       </c>
       <c r="F31" t="n">
-        <v>126.7003606771698</v>
+        <v>338.7710254524902</v>
       </c>
       <c r="G31" t="n">
-        <v>126.7003606771698</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H31" t="n">
-        <v>126.7003606771698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1149.432313750472</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>900.1595600940315</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>691.6126087883997</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>496.6738210118492</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2298.248054705654</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>1953.460239768872</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148413</v>
+        <v>1614.33308561188</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415258</v>
+        <v>1265.329645878724</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188929</v>
+        <v>844.299233832412</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616726</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>82.36414720635868</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>620.5236483153982</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
-        <v>1333.115048127636</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>2109.43363911939</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>2862.614655758008</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3506.245512175113</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>4035.402210094265</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4118.207360317934</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861982</v>
+        <v>4592.240585075188</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4435.370876771995</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568247</v>
+        <v>4178.310385031505</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3828.472830367985</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3444.712529503154</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458691</v>
+        <v>3044.069131672106</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2643.132458620196</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>275.1770047689919</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>730.9832610342906</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1285.876262362292</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>2128.853343056859</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>2128.853343056859</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2128.853343056859</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2128.853343056859</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2128.853343056859</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578618</v>
+        <v>725.2201177421259</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695263</v>
+        <v>619.46352105379</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423839</v>
+        <v>525.3056521266476</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606509</v>
+        <v>429.7316127449147</v>
       </c>
       <c r="F34" t="n">
-        <v>319.5577121211895</v>
+        <v>330.4372626054536</v>
       </c>
       <c r="G34" t="n">
-        <v>217.6440967966805</v>
+        <v>228.5236472809446</v>
       </c>
       <c r="H34" t="n">
-        <v>133.373417352085</v>
+        <v>144.2529678363491</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240926</v>
+        <v>171.3628210083568</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588543</v>
+        <v>389.9517226431185</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514385</v>
+        <v>713.8853968357026</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704455</v>
+        <v>1067.186027188719</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.181833011229</v>
+        <v>1412.061383495493</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250227</v>
+        <v>1735.658567734491</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412363</v>
+        <v>2005.370581896627</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>2134.935185611662</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>2114.999243037008</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182603</v>
+        <v>1993.944250666867</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909253</v>
+        <v>1819.732287393516</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1602.270915689588</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894794</v>
+        <v>1393.721946379057</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153616</v>
+        <v>1179.989057637879</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632465</v>
+        <v>1006.98197124751</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019588</v>
+        <v>847.5830483862227</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2080.954409242187</v>
+        <v>2080.954409242188</v>
       </c>
       <c r="C35" t="n">
-        <v>1736.166594305405</v>
+        <v>1736.166594305406</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E35" t="n">
         <v>1048.036000415258</v>
       </c>
       <c r="F35" t="n">
-        <v>692.3423641188926</v>
+        <v>692.3423641188929</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616725</v>
       </c>
       <c r="H35" t="n">
         <v>103.379134139338</v>
       </c>
       <c r="I35" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J35" t="n">
         <v>336.549618674113</v>
@@ -6944,31 +6944,31 @@
         <v>1587.300519595391</v>
       </c>
       <c r="M35" t="n">
-        <v>1830.521136858203</v>
+        <v>1871.077782547768</v>
       </c>
       <c r="N35" t="n">
-        <v>2583.702153496821</v>
+        <v>2624.258799186387</v>
       </c>
       <c r="O35" t="n">
-        <v>3227.333009913926</v>
+        <v>3267.889655603492</v>
       </c>
       <c r="P35" t="n">
-        <v>3756.489707833077</v>
+        <v>3797.046353522643</v>
       </c>
       <c r="Q35" t="n">
-        <v>4077.650714628369</v>
+        <v>4118.207360317935</v>
       </c>
       <c r="R35" t="n">
-        <v>4118.207360317934</v>
+        <v>4118.207360317935</v>
       </c>
       <c r="S35" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861984</v>
       </c>
       <c r="T35" t="n">
         <v>3891.39335255879</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568248</v>
       </c>
       <c r="V35" t="n">
         <v>3415.168857654676</v>
@@ -6980,7 +6980,7 @@
         <v>2761.438710458692</v>
       </c>
       <c r="Y35" t="n">
-        <v>2425.838813156729</v>
+        <v>2425.83881315673</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I36" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J36" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="K36" t="n">
-        <v>730.9832610342906</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L36" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="M36" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="N36" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="O36" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="P36" t="n">
-        <v>1749.449359010245</v>
+        <v>1760.964467879476</v>
       </c>
       <c r="Q36" t="n">
-        <v>2099.293823694229</v>
+        <v>2110.808932563459</v>
       </c>
       <c r="R36" t="n">
         <v>2128.853343056859</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578624</v>
+        <v>714.3405672578627</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695264</v>
+        <v>608.5839705695267</v>
       </c>
       <c r="D37" t="n">
-        <v>514.426101642384</v>
+        <v>514.4261016423843</v>
       </c>
       <c r="E37" t="n">
-        <v>418.852062260651</v>
+        <v>418.8520622606512</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211898</v>
+        <v>319.55771212119</v>
       </c>
       <c r="G37" t="n">
-        <v>217.6440967966808</v>
+        <v>217.6440967966809</v>
       </c>
       <c r="H37" t="n">
-        <v>133.373417352085</v>
+        <v>133.3734173520851</v>
       </c>
       <c r="I37" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J37" t="n">
         <v>160.4832705240928</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588543</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514384</v>
       </c>
       <c r="M37" t="n">
         <v>1056.306476704455</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.181833011231</v>
       </c>
       <c r="O37" t="n">
-        <v>1724.779017250227</v>
+        <v>1724.779017250229</v>
       </c>
       <c r="P37" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412365</v>
       </c>
       <c r="Q37" t="n">
         <v>2124.055635127399</v>
@@ -7120,25 +7120,25 @@
         <v>2104.119692552746</v>
       </c>
       <c r="S37" t="n">
-        <v>1983.064700182603</v>
+        <v>1983.064700182604</v>
       </c>
       <c r="T37" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909254</v>
       </c>
       <c r="U37" t="n">
         <v>1591.391365205325</v>
       </c>
       <c r="V37" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894795</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153617</v>
       </c>
       <c r="X37" t="n">
-        <v>996.102420763247</v>
+        <v>996.1024207632474</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019593</v>
+        <v>836.7034979019596</v>
       </c>
     </row>
     <row r="38">
@@ -7166,58 +7166,58 @@
         <v>348.9508557616723</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3791341393379</v>
+        <v>103.379134139338</v>
       </c>
       <c r="I38" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J38" t="n">
-        <v>124.6126517404633</v>
+        <v>124.6126517404642</v>
       </c>
       <c r="K38" t="n">
-        <v>662.7721528495028</v>
+        <v>662.7721528495038</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.363552661741</v>
+        <v>1375.363552661742</v>
       </c>
       <c r="M38" t="n">
-        <v>2151.682143653495</v>
+        <v>2151.682143653496</v>
       </c>
       <c r="N38" t="n">
-        <v>2904.863160292113</v>
+        <v>2904.863160292114</v>
       </c>
       <c r="O38" t="n">
-        <v>3548.494016709218</v>
+        <v>3548.494016709219</v>
       </c>
       <c r="P38" t="n">
-        <v>4077.650714628369</v>
+        <v>4077.65071462837</v>
       </c>
       <c r="Q38" t="n">
-        <v>4077.650714628369</v>
+        <v>4077.65071462837</v>
       </c>
       <c r="R38" t="n">
-        <v>4118.207360317934</v>
+        <v>4118.207360317935</v>
       </c>
       <c r="S38" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861984</v>
       </c>
       <c r="T38" t="n">
-        <v>3891.393352558789</v>
+        <v>3891.39335255879</v>
       </c>
       <c r="U38" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V38" t="n">
         <v>3415.168857654675</v>
       </c>
       <c r="W38" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X38" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y38" t="n">
-        <v>2425.838813156729</v>
+        <v>2425.83881315673</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I39" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J39" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K39" t="n">
-        <v>538.1704034716574</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L39" t="n">
         <v>1187.743466521715</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G40" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I40" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240929</v>
+        <v>160.483270524093</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588546</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514387</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M40" t="n">
         <v>1056.306476704456</v>
@@ -7345,10 +7345,10 @@
         <v>1401.18183301123</v>
       </c>
       <c r="O40" t="n">
-        <v>1724.779017250227</v>
+        <v>1724.779017250228</v>
       </c>
       <c r="P40" t="n">
-        <v>1994.491031412363</v>
+        <v>1994.491031412364</v>
       </c>
       <c r="Q40" t="n">
         <v>2124.055635127398</v>
@@ -7372,10 +7372,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E41" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H41" t="n">
         <v>103.3791341393379</v>
       </c>
       <c r="I41" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J41" t="n">
         <v>336.549618674113</v>
@@ -7418,31 +7418,31 @@
         <v>1587.300519595391</v>
       </c>
       <c r="M41" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N41" t="n">
-        <v>2583.702153496821</v>
+        <v>2583.702153496822</v>
       </c>
       <c r="O41" t="n">
-        <v>3227.333009913926</v>
+        <v>3227.333009913927</v>
       </c>
       <c r="P41" t="n">
-        <v>3756.489707833077</v>
+        <v>3756.489707833078</v>
       </c>
       <c r="Q41" t="n">
-        <v>4077.650714628369</v>
+        <v>4077.65071462837</v>
       </c>
       <c r="R41" t="n">
-        <v>4118.207360317934</v>
+        <v>4118.207360317935</v>
       </c>
       <c r="S41" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T41" t="n">
-        <v>3891.393352558789</v>
+        <v>3891.39335255879</v>
       </c>
       <c r="U41" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568248</v>
       </c>
       <c r="V41" t="n">
         <v>3415.168857654675</v>
@@ -7451,7 +7451,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X41" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y41" t="n">
         <v>2425.838813156729</v>
@@ -7485,7 +7485,7 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I42" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J42" t="n">
         <v>275.1770047689919</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578618</v>
       </c>
       <c r="C43" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695259</v>
       </c>
       <c r="D43" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423834</v>
       </c>
       <c r="E43" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606507</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211898</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G43" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H43" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520847</v>
       </c>
       <c r="I43" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J43" t="n">
-        <v>160.483270524093</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K43" t="n">
-        <v>379.0721721588546</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L43" t="n">
         <v>703.0058463514388</v>
       </c>
       <c r="M43" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N43" t="n">
         <v>1401.181833011229</v>
@@ -7588,31 +7588,31 @@
         <v>1994.491031412363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2124.055635127398</v>
+        <v>2124.055635127397</v>
       </c>
       <c r="R43" t="n">
         <v>2104.119692552745</v>
       </c>
       <c r="S43" t="n">
-        <v>1983.064700182603</v>
+        <v>1983.064700182602</v>
       </c>
       <c r="T43" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U43" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V43" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X43" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632463</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019586</v>
       </c>
     </row>
     <row r="44">
@@ -7631,67 +7631,67 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F44" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188928</v>
       </c>
       <c r="G44" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616725</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3791341393379</v>
+        <v>103.379134139338</v>
       </c>
       <c r="I44" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J44" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K44" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M44" t="n">
-        <v>1830.521136858203</v>
+        <v>1830.521136858204</v>
       </c>
       <c r="N44" t="n">
-        <v>2583.702153496821</v>
+        <v>2583.702153496822</v>
       </c>
       <c r="O44" t="n">
-        <v>3227.333009913926</v>
+        <v>3227.333009913927</v>
       </c>
       <c r="P44" t="n">
-        <v>3756.489707833077</v>
+        <v>3756.489707833078</v>
       </c>
       <c r="Q44" t="n">
-        <v>4077.650714628369</v>
+        <v>4077.65071462837</v>
       </c>
       <c r="R44" t="n">
-        <v>4118.207360317934</v>
+        <v>4118.207360317935</v>
       </c>
       <c r="S44" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T44" t="n">
-        <v>3891.393352558789</v>
+        <v>3891.39335255879</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568248</v>
       </c>
       <c r="V44" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W44" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y44" t="n">
-        <v>2425.838813156729</v>
+        <v>2425.83881315673</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I45" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J45" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="K45" t="n">
-        <v>730.9832610342906</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L45" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="M45" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="N45" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="O45" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="P45" t="n">
-        <v>1749.449359010245</v>
+        <v>1760.964467879476</v>
       </c>
       <c r="Q45" t="n">
-        <v>2099.293823694229</v>
+        <v>2110.808932563459</v>
       </c>
       <c r="R45" t="n">
         <v>2128.853343056859</v>
@@ -7801,13 +7801,13 @@
         <v>133.373417352085</v>
       </c>
       <c r="I46" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J46" t="n">
         <v>160.4832705240929</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588546</v>
+        <v>379.0721721588543</v>
       </c>
       <c r="L46" t="n">
         <v>703.0058463514388</v>
@@ -7846,7 +7846,7 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X46" t="n">
-        <v>996.1024207632466</v>
+        <v>996.1024207632468</v>
       </c>
       <c r="Y46" t="n">
         <v>836.7034979019591</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.46409893892091</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>537.361002360626</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7991,16 +7991,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>110.4694712067335</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.8539123250013</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>104.1322507405728</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8055,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>68.1893467258493</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>72.6458907104647</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>72.93463173669835</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>73.7047913440304</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>395.7562197346337</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8079,7 +8079,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>71.44840181975081</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40545010439301</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>72.89500599884562</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>72.59994956575409</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>304.6710456564533</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>324.6376787801908</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>273.9460644105822</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>229.2480899138817</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.3812587222974</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8295,25 +8295,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>332.1773130131622</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>288.9117380615627</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>284.5408477168953</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>285.4215927085143</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8374,22 +8374,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>196.2136498527567</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>287.6123968219254</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0600998315647</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>287.4223523961417</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q7" t="n">
         <v>127.5494547533709</v>
@@ -8453,22 +8453,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>231.5538328679743</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8532,28 +8532,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>445.9785625348323</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>239.7383945110979</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>351.0020450750871</v>
+        <v>544.706743650734</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8711,7 +8711,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8766,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O12" t="n">
-        <v>519.1254239367926</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>455.0396427506477</v>
+        <v>607.778032548956</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9003,31 +9003,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>309.8442573638427</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>309.7035470141101</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9179,7 +9179,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>455.0396427506477</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
@@ -9246,25 +9246,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>712.2489309321195</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>285.4811293141941</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>115.9988484384632</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>544.706743650734</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9419,10 +9419,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>517.4884687476416</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447774</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9501,7 +9501,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>459.6204097388272</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
@@ -9656,7 +9656,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>326.4137600799544</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9714,22 +9714,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447774</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>519.1254239367926</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
@@ -9738,7 +9738,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>517.4884687476416</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9975,7 +9975,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,10 +10194,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>517.4884687476416</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10367,10 +10367,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.6753702816465</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>616.6125049502443</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10443,13 +10443,13 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>338.9676156316031</v>
+        <v>379.9339244089423</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10607,7 +10607,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>517.4884687476415</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10686,7 +10686,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>115.9988484384642</v>
+        <v>115.998848438465</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10899,13 +10899,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>712.2489309321195</v>
+        <v>517.4884687476415</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -11066,10 +11066,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>338.9676156316031</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.701196452193</v>
+        <v>315.2183947057883</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>338.967615631604</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11373,13 +11373,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476415</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11397,7 +11397,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>187.8911741606714</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.96740065517069</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.40742005291327</v>
+        <v>98.30449406591958</v>
       </c>
       <c r="T11" t="n">
-        <v>182.4635748116829</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>80.60005835305259</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.7586683259801</v>
       </c>
       <c r="D13" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7808625794368</v>
+        <v>22.94103545687659</v>
       </c>
       <c r="F13" t="n">
-        <v>62.96034945761556</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.590536241671</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89914674042747</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>148.9040800509683</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.3366531309929</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9674972241961</v>
+        <v>186.8645712372024</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.1956682265917</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.005836638978391</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>182.4635748116829</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>216.9690424221581</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>99.62445822938753</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>122.2759278423985</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>112.4876102546773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>79.5588150487965</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89914674042745</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T16" t="n">
-        <v>199.632407232138</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>167.4196488912269</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>233.6260432089464</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5.638008706205536e-13</v>
+        <v>131.1192277270773</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>106.8102013378434</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.1050602290548</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.8243688358621</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>114.6789571108739</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>103.1962166272924</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>20.05425532675132</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>139.0523433138166</v>
       </c>
       <c r="X28" t="n">
-        <v>48.03579966567656</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>11.61932986938522</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>52.56154735369753</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017875.456818404</v>
+        <v>1038841.42433693</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1027176.842491897</v>
+        <v>1038841.42433693</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1034062.256419807</v>
+        <v>1038841.42433693</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>976478.2019028305</v>
+        <v>990666.5122317488</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976478.2019028306</v>
+        <v>990666.5122317488</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1050837.831895565</v>
+        <v>1042898.705321446</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1050837.831895565</v>
+        <v>1042898.705321446</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1050837.831895565</v>
+        <v>1042898.705321446</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1022848.253593108</v>
+        <v>1022848.253593107</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1050837.831895565</v>
+        <v>1054052.574221991</v>
       </c>
     </row>
     <row r="13">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>130305.9144259656</v>
+      </c>
+      <c r="C2" t="n">
         <v>130305.9144259655</v>
-      </c>
-      <c r="C2" t="n">
-        <v>130305.9144259656</v>
       </c>
       <c r="D2" t="n">
         <v>130305.9144259655</v>
       </c>
       <c r="E2" t="n">
-        <v>120711.1234591612</v>
+        <v>122424.2153484285</v>
       </c>
       <c r="F2" t="n">
-        <v>120711.1234591612</v>
+        <v>122424.2153484284</v>
       </c>
       <c r="G2" t="n">
-        <v>130305.9144259655</v>
+        <v>129163.8531664538</v>
       </c>
       <c r="H2" t="n">
-        <v>130305.9144259657</v>
+        <v>129163.8531664542</v>
       </c>
       <c r="I2" t="n">
-        <v>130305.9144259655</v>
+        <v>129163.853166454</v>
       </c>
       <c r="J2" t="n">
         <v>126279.5504738517</v>
@@ -26341,7 +26341,7 @@
         <v>126279.5504738517</v>
       </c>
       <c r="L2" t="n">
-        <v>130305.9144259656</v>
+        <v>130305.9144259657</v>
       </c>
       <c r="M2" t="n">
         <v>130305.9144259657</v>
@@ -26350,7 +26350,7 @@
         <v>130305.9144259657</v>
       </c>
       <c r="O2" t="n">
-        <v>130305.9144259656</v>
+        <v>130305.9144259655</v>
       </c>
       <c r="P2" t="n">
         <v>130305.9144259656</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>69307.49696633406</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49329.69823741124</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>220927.1681557332</v>
+        <v>191541.2671994907</v>
       </c>
       <c r="F3" t="n">
-        <v>2.557953848736361e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>21730.05087321703</v>
+        <v>15263.7689720848</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41852.09666231435</v>
+        <v>170419.5815951229</v>
       </c>
       <c r="K3" t="n">
-        <v>55212.4740875793</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>55650.86860860701</v>
+        <v>43411.3419849729</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302944</v>
+        <v>102190.6169864201</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.10250785341</v>
+        <v>8335.384408985499</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319084.2979558376</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="C4" t="n">
-        <v>259194.6833685438</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>214860.989347906</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="E4" t="n">
-        <v>79557.35703900705</v>
+        <v>78570.36215835332</v>
       </c>
       <c r="F4" t="n">
-        <v>79557.35703900708</v>
+        <v>78570.36215835335</v>
       </c>
       <c r="G4" t="n">
-        <v>107006.3695226607</v>
+        <v>97851.28273727205</v>
       </c>
       <c r="H4" t="n">
-        <v>107006.3695226606</v>
+        <v>97851.28273727215</v>
       </c>
       <c r="I4" t="n">
-        <v>107006.3695226607</v>
+        <v>97851.28273727215</v>
       </c>
       <c r="J4" t="n">
         <v>74729.89476777156</v>
@@ -26445,7 +26445,7 @@
         <v>74729.89476777156</v>
       </c>
       <c r="L4" t="n">
-        <v>107006.3695226606</v>
+        <v>86307.33760574998</v>
       </c>
       <c r="M4" t="n">
         <v>107006.3695226606</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>47693.52522284723</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>65751.09174477411</v>
+        <v>67936.92019047769</v>
       </c>
       <c r="F5" t="n">
-        <v>65751.09174477411</v>
+        <v>67936.92019047769</v>
       </c>
       <c r="G5" t="n">
-        <v>68034.6213033497</v>
+        <v>69540.93243262044</v>
       </c>
       <c r="H5" t="n">
-        <v>68034.6213033497</v>
+        <v>69540.93243262044</v>
       </c>
       <c r="I5" t="n">
-        <v>68034.6213033497</v>
+        <v>69540.93243262044</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26497,19 +26497,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>68034.62130334972</v>
+        <v>76303.07967139044</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
       </c>
       <c r="N5" t="n">
-        <v>68034.62130334972</v>
+        <v>68034.62130334973</v>
       </c>
       <c r="O5" t="n">
-        <v>68034.62130334972</v>
+        <v>68034.62130334973</v>
       </c>
       <c r="P5" t="n">
-        <v>68034.62130334972</v>
+        <v>68034.62130334973</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-229065.4511201981</v>
+        <v>-294107.6192895401</v>
       </c>
       <c r="C6" t="n">
-        <v>-245889.7911317595</v>
+        <v>-119152.1093964261</v>
       </c>
       <c r="D6" t="n">
-        <v>-191233.6621681649</v>
+        <v>-119152.1093964261</v>
       </c>
       <c r="E6" t="n">
-        <v>-245524.4934803532</v>
+        <v>-215722.8554383623</v>
       </c>
       <c r="F6" t="n">
-        <v>-24597.32532462006</v>
+        <v>-24181.58823887185</v>
       </c>
       <c r="G6" t="n">
-        <v>-66465.1272732619</v>
+        <v>-53506.40674126735</v>
       </c>
       <c r="H6" t="n">
-        <v>-44735.07640004461</v>
+        <v>-38242.63776918242</v>
       </c>
       <c r="I6" t="n">
-        <v>-44735.07640004488</v>
+        <v>-38242.63776918245</v>
       </c>
       <c r="J6" t="n">
-        <v>-63647.59773309903</v>
+        <v>-192265.4122153091</v>
       </c>
       <c r="K6" t="n">
-        <v>-77007.975158364</v>
+        <v>-21845.83062018618</v>
       </c>
       <c r="L6" t="n">
-        <v>-100385.9450086518</v>
+        <v>-75715.84483614762</v>
       </c>
       <c r="M6" t="n">
-        <v>-204075.8798303391</v>
+        <v>-146925.6933864647</v>
       </c>
       <c r="N6" t="n">
-        <v>-44735.07640004472</v>
+        <v>-44735.07640004477</v>
       </c>
       <c r="O6" t="n">
-        <v>-46604.17890789818</v>
+        <v>-53070.46080903035</v>
       </c>
       <c r="P6" t="n">
-        <v>-44735.07640004475</v>
+        <v>-44735.07640004477</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="F2" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="G2" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="H2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
@@ -26716,10 +26716,10 @@
         <v>64.68340799244812</v>
       </c>
       <c r="M2" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="N2" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O2" t="n">
         <v>64.68340799244812</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>231.3474543231453</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.551840079483</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.551840079483</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.551840079483</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.551840079483</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.551840079483</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="F2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>27.16256359152128</v>
+        <v>19.079711215106</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123186</v>
       </c>
       <c r="K2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34702985763141</v>
+        <v>54.26417748121612</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123187</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>214.527346397296</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8053254270716</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292664</v>
+        <v>546.0625059085204</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791508</v>
+        <v>619.4837152242644</v>
       </c>
       <c r="K4" t="n">
-        <v>214.527346397296</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.81094437377021</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292664</v>
+        <v>410.0681248552193</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="K2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>27.16256359152128</v>
+        <v>19.079711215106</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123186</v>
       </c>
       <c r="P2" t="n">
         <v>2.842170943040401e-14</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>214.527346397296</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>158.8053254270716</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292664</v>
+        <v>546.0625059085204</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>80.73638388877794</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.1643112867605</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.2540456860931</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>92.0949587257462</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.9283372490126</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>178.5571948273142</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>194.7543038110472</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27546,16 +27546,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>148.1696635694266</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>148.7577792378627</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.2912727167486</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.36247751086781</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>235.9633611932104</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>185.472653602704</v>
-      </c>
-      <c r="G5" t="n">
-        <v>173.2935469429508</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>198.9102766722062</v>
+        <v>298.369782523317</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.5798519982455</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>52.55051755119015</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>229.0832933187321</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>4.61296919576813</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>26.66732817563241</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>249.5351128844586</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27907,19 +27907,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>19.86194666880482</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>88.96788785444559</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.50097262859845</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>113.0533915955078</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="E11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="G11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="H11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="I11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="W11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="X11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="C13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="D13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="G13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="K13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="L13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="N13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="O13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="U13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="V13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="W13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="X13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792057</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="C14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="D14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="E14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="F14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="G14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="H14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="I14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="T14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="U14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="V14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="W14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="X14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="C16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="D16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="E16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="F16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="G16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="H16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="J16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="K16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="L16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="M16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="N16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="O16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="P16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="R16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="S16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="T16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="U16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="V16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="W16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="X16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.5208444009269</v>
+        <v>35.62377038792059</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="C17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="D17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="E17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="F17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="G17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="H17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="I17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="T17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="U17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="V17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="W17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="X17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="C19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="E19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="F19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="G19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="H19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="I19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="J19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="K19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="L19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="M19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="N19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="O19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="P19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="R19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="S19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="T19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="U19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="V19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="W19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="X19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.68340799244818</v>
+        <v>54.7034816030266</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="C20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="E20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="F20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="G20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="H20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="I20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="T20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="U20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="V20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="W20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="X20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="C22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="D22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="E22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="F22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="G22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="H22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="I22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="J22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244825</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="L22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="M22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="N22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="O22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="P22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="R22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="S22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="T22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="U22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="V22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="W22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="X22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244885</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302643</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302671</v>
       </c>
     </row>
     <row r="26">
@@ -29758,16 +29758,16 @@
         <v>64.68340799244812</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>64.68340799244812</v>
+        <v>54.38367794038157</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29803,19 +29803,19 @@
         <v>64.68340799244812</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="C35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="D35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="E35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="F35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="G35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="H35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="I35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="T35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="U35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="V35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="W35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="X35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="C37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="D37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="E37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="F37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="G37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="H37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="I37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="J37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="K37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="L37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="M37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="N37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244999</v>
       </c>
       <c r="O37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="P37" t="n">
-        <v>64.68340799244928</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="R37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="S37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="T37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="U37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="V37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="W37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="X37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.68340799244807</v>
+        <v>64.68340799244802</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244822</v>
       </c>
       <c r="K40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="L40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="M40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="N40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O40" t="n">
-        <v>64.68340799244777</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="P40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="R40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="S40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="V41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244737</v>
       </c>
       <c r="W41" t="n">
         <v>64.68340799244812</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.14050760561297</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.8201079258493</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.8201079258493</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>16.8201079258493</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>16.14050760561297</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34799,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>16.8201079258493</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>16.14050760561297</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8201079258493</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>16.8201079258493</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>231.3474543231453</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>231.3474543231453</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>181.0337736539628</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="Q5" t="n">
-        <v>231.3474543231453</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35015,25 +35015,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>231.3474543231453</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>231.3474543231453</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>228.7289742036756</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35094,22 +35094,22 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>141.5853559588552</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>231.3474543231453</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>231.3474543231453</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>231.3474543231453</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q7" t="n">
         <v>66.18992909344529</v>
@@ -35173,22 +35173,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>142.4174431947572</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35252,28 +35252,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>390.1527797502169</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>186.5450011173479</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>261.86565540187</v>
+        <v>455.5703539775168</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35431,7 +35431,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.7456417799274</v>
+        <v>49.84856776692109</v>
       </c>
       <c r="K13" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336155</v>
       </c>
       <c r="L13" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031332</v>
       </c>
       <c r="M13" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843784</v>
       </c>
       <c r="N13" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598905</v>
       </c>
       <c r="O13" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611268</v>
       </c>
       <c r="P13" t="n">
-        <v>245.2738143500303</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.7107734943722</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>361.3902794697635</v>
+        <v>514.1286692680719</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>254.0184745792273</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.74564177992742</v>
+        <v>49.84856776692112</v>
       </c>
       <c r="K16" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336155</v>
       </c>
       <c r="L16" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031333</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N16" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O16" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611268</v>
       </c>
       <c r="P16" t="n">
-        <v>245.2738143500303</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7107734943722</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>236.3799556808022</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35899,7 +35899,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>361.3902794697635</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>656.1344071212704</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>227.9168455757767</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.9082053714487</v>
+        <v>68.92827898202712</v>
       </c>
       <c r="K19" t="n">
-        <v>220.7968703381431</v>
+        <v>210.8169439487215</v>
       </c>
       <c r="L19" t="n">
-        <v>327.2057315076609</v>
+        <v>317.2258051182393</v>
       </c>
       <c r="M19" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994844</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749966</v>
       </c>
       <c r="O19" t="n">
-        <v>326.8658426656544</v>
+        <v>316.8859162762328</v>
       </c>
       <c r="P19" t="n">
-        <v>272.4363779415516</v>
+        <v>262.45645155213</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.8733370858935</v>
+        <v>120.8934106964719</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>42.6752571051553</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>455.5703539775168</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36139,10 +36139,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3739449367926</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>18.22667726606031</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202724</v>
       </c>
       <c r="K22" t="n">
-        <v>220.7968703381432</v>
+        <v>210.8169439487216</v>
       </c>
       <c r="L22" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182394</v>
       </c>
       <c r="M22" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994846</v>
       </c>
       <c r="N22" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749967</v>
       </c>
       <c r="O22" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762329</v>
       </c>
       <c r="P22" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521301</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.8733370858934</v>
+        <v>120.893410696472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>370.48402006561</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36376,7 +36376,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>236.3799556808023</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>18.22667726606031</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
@@ -36458,7 +36458,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202724</v>
       </c>
       <c r="K25" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487216</v>
       </c>
       <c r="L25" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182394</v>
       </c>
       <c r="M25" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994846</v>
       </c>
       <c r="N25" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749967</v>
       </c>
       <c r="O25" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762329</v>
       </c>
       <c r="P25" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521301</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.8733370858934</v>
+        <v>120.893410696472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3739449367926</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>461.3739449367926</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37087,10 +37087,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.64156588249439</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>560.4979811393953</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>245.6773911745577</v>
+        <v>286.6436999518968</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37327,7 +37327,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3739449367924</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144859</v>
+        <v>78.90820537144856</v>
       </c>
       <c r="K37" t="n">
         <v>220.796870338143</v>
@@ -37473,16 +37473,16 @@
         <v>356.8693235889059</v>
       </c>
       <c r="N37" t="n">
-        <v>348.358945764418</v>
+        <v>348.35894576442</v>
       </c>
       <c r="O37" t="n">
-        <v>326.8658426656543</v>
+        <v>326.8658426656542</v>
       </c>
       <c r="P37" t="n">
-        <v>272.4363779415527</v>
+        <v>272.4363779415514</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.8733370858934</v>
+        <v>130.8733370858933</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>42.67525710515621</v>
+        <v>42.67525710515709</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>656.1344071212704</v>
+        <v>461.3739449367924</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144876</v>
       </c>
       <c r="K40" t="n">
         <v>220.796870338143</v>
@@ -37713,7 +37713,7 @@
         <v>348.3589457644181</v>
       </c>
       <c r="O40" t="n">
-        <v>326.865842665654</v>
+        <v>326.8658426656543</v>
       </c>
       <c r="P40" t="n">
         <v>272.4363779415515</v>
@@ -37786,10 +37786,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>245.6773911745577</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955737</v>
+        <v>222.3061039491689</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209636</v>
+        <v>245.6773911745586</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367924</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
